--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/15.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/15.xlsx
@@ -479,13 +479,13 @@
         <v>-10.74556073740594</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.44650825888642</v>
+        <v>-10.41468087067819</v>
       </c>
       <c r="F2" t="n">
-        <v>2.935448690909993</v>
+        <v>2.967079694575603</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.09880888783629</v>
+        <v>-16.13531022815902</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.26026136238636</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.95014296460194</v>
+        <v>-10.91502940838043</v>
       </c>
       <c r="F3" t="n">
-        <v>2.793371020471582</v>
+        <v>2.822514486597264</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.64328839506412</v>
+        <v>-15.68839137835386</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.658842357335411</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.20202577897391</v>
+        <v>-11.17121959038733</v>
       </c>
       <c r="F4" t="n">
-        <v>2.913767837404095</v>
+        <v>2.949169424288122</v>
       </c>
       <c r="G4" t="n">
-        <v>-15.09963051956144</v>
+        <v>-15.15114873124364</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.015532565663534</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.72850655314824</v>
+        <v>-11.69654824191159</v>
       </c>
       <c r="F5" t="n">
-        <v>2.949876408641575</v>
+        <v>2.998422667578696</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.45513572757179</v>
+        <v>-14.51136716827701</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.356535477055186</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.47818490616832</v>
+        <v>-12.44959131676199</v>
       </c>
       <c r="F6" t="n">
-        <v>2.978234336596754</v>
+        <v>3.02143893597445</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.96100603371937</v>
+        <v>-14.01416078325678</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.720047975717296</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.74635454527539</v>
+        <v>-12.72747544457762</v>
       </c>
       <c r="F7" t="n">
-        <v>3.211015481122643</v>
+        <v>3.264720107379404</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.30242392387202</v>
+        <v>-13.34215906299666</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.134563412452599</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.54692267944126</v>
+        <v>-13.51958595110773</v>
       </c>
       <c r="F8" t="n">
-        <v>3.351181675346163</v>
+        <v>3.412060883560189</v>
       </c>
       <c r="G8" t="n">
-        <v>-13.01401358457164</v>
+        <v>-13.04265954318934</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.61640291114636</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.1799617064444</v>
+        <v>-14.15523034637637</v>
       </c>
       <c r="F9" t="n">
-        <v>3.51894644396004</v>
+        <v>3.569980240437089</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.41196403839487</v>
+        <v>-12.42933752426584</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.178160066465155</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.16103341988914</v>
+        <v>-15.14665807136892</v>
       </c>
       <c r="F10" t="n">
-        <v>3.690665088032119</v>
+        <v>3.74740712854816</v>
       </c>
       <c r="G10" t="n">
-        <v>-12.07488960943179</v>
+        <v>-12.09304863347326</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.815744244975297</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.03385797343849</v>
+        <v>-16.02018960927173</v>
       </c>
       <c r="F11" t="n">
-        <v>3.863535854754271</v>
+        <v>3.916297835206427</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.57742137835472</v>
+        <v>-11.58428174504379</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.530628131118354</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.81524588394123</v>
+        <v>-16.81756322154421</v>
       </c>
       <c r="F12" t="n">
-        <v>3.897261626874557</v>
+        <v>3.946462500953764</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.33686340594085</v>
+        <v>-11.34323935742477</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.307062928844525</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.43356916255027</v>
+        <v>-17.42335716633372</v>
       </c>
       <c r="F13" t="n">
-        <v>3.768092967038088</v>
+        <v>3.816194087678589</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.75610194418472</v>
+        <v>-10.75902152771842</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.140409221759793</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.37463079851069</v>
+        <v>-18.36036018841321</v>
       </c>
       <c r="F14" t="n">
-        <v>4.025278164060954</v>
+        <v>4.059920397380162</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.19923393511474</v>
+        <v>-10.19772832028794</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.009204444355954</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.20372706056868</v>
+        <v>-19.19068712693832</v>
       </c>
       <c r="F15" t="n">
-        <v>4.066780764069226</v>
+        <v>4.10299407372944</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.707212102019835</v>
+        <v>-9.703781918675302</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.903069197007654</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.22473029768069</v>
+        <v>-20.21341854802544</v>
       </c>
       <c r="F16" t="n">
-        <v>4.292701541906051</v>
+        <v>4.314146733960799</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.179710128223849</v>
+        <v>-9.177654636677699</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.798755343889655</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.20527831901176</v>
+        <v>-21.1899472323841</v>
       </c>
       <c r="F17" t="n">
-        <v>4.468321692224965</v>
+        <v>4.497124758476762</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.826964212759224</v>
+        <v>-8.821635645502642</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.683833067074043</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.98616872200651</v>
+        <v>-21.96515557594554</v>
       </c>
       <c r="F18" t="n">
-        <v>4.742369775307974</v>
+        <v>4.780363638154664</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.308823235495074</v>
+        <v>-8.307121236125649</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.540098050070871</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.67623782018821</v>
+        <v>-22.65254075204469</v>
       </c>
       <c r="F19" t="n">
-        <v>4.93317699692329</v>
+        <v>4.968709506835735</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.780444077408693</v>
+        <v>-7.771960265167254</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.362077117601507</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.40570165762066</v>
+        <v>-23.38492417301084</v>
       </c>
       <c r="F20" t="n">
-        <v>5.01615601233415</v>
+        <v>5.048441631141847</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.087010257396672</v>
+        <v>-7.080058244587716</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.142211804045893</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.09635990943024</v>
+        <v>-24.05885046178869</v>
       </c>
       <c r="F21" t="n">
-        <v>5.051060091710192</v>
+        <v>5.080203557835874</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.925464332632614</v>
+        <v>-6.912581506636355</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.883634410438716</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.80975949127589</v>
+        <v>-24.77371638155262</v>
       </c>
       <c r="F22" t="n">
-        <v>5.365039698460467</v>
+        <v>5.395282918024853</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.768736375314311</v>
+        <v>-6.765594222632297</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.587325358527043</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.35382322816666</v>
+        <v>-25.31340728929425</v>
       </c>
       <c r="F23" t="n">
-        <v>5.347941150949172</v>
+        <v>5.367003543886725</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.426621409757167</v>
+        <v>-6.415964275244002</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.262998304905711</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.78905065153416</v>
+        <v>-25.74684106717243</v>
       </c>
       <c r="F24" t="n">
-        <v>5.24901571067709</v>
+        <v>5.269413518504499</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.111974095561965</v>
+        <v>-6.105977820860454</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.917029877283044</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.14304033576875</v>
+        <v>-26.10329210434127</v>
       </c>
       <c r="F25" t="n">
-        <v>5.352602010760827</v>
+        <v>5.378681878021546</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.815433436196869</v>
+        <v>-5.805234532283165</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.56086173568291</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.48397699407014</v>
+        <v>-26.43158159809755</v>
       </c>
       <c r="F26" t="n">
-        <v>5.338828908171331</v>
+        <v>5.360797792339747</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.562594883717455</v>
+        <v>-5.550144103714974</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.199642503311666</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.23250004108626</v>
+        <v>-26.18572124303278</v>
       </c>
       <c r="F27" t="n">
-        <v>5.449380313366865</v>
+        <v>5.468914029206721</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.116068802997546</v>
+        <v>-5.099598686022655</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.841027605714995</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.41588392699032</v>
+        <v>-26.37165812799097</v>
       </c>
       <c r="F28" t="n">
-        <v>5.256190292634356</v>
+        <v>5.275278870177592</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.921124413684245</v>
+        <v>-4.91562564649072</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.487949807868202</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.53579632871769</v>
+        <v>-26.4937569442929</v>
       </c>
       <c r="F29" t="n">
-        <v>5.299709107280253</v>
+        <v>5.318771500217807</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.881467828376657</v>
+        <v>-4.869239617522484</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.146695715016917</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.6091263169342</v>
+        <v>-26.56226896506366</v>
       </c>
       <c r="F30" t="n">
-        <v>5.287611819454499</v>
+        <v>5.308533319395576</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.871229647554427</v>
+        <v>-4.857338714239355</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.8217054888030737</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.24595892840756</v>
+        <v>-26.19298747110993</v>
       </c>
       <c r="F31" t="n">
-        <v>5.172530477475727</v>
+        <v>5.195023053757811</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.085184060593914</v>
+        <v>-5.069028158887225</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.5205459674643839</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.94035839547599</v>
+        <v>-25.87961011029038</v>
       </c>
       <c r="F32" t="n">
-        <v>5.215159015528386</v>
+        <v>5.235294977298961</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.169812706162832</v>
+        <v>-5.149441082941106</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.2502918992140326</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.78817346724376</v>
+        <v>-25.73332981063977</v>
       </c>
       <c r="F33" t="n">
-        <v>5.117542805540477</v>
+        <v>5.13872615153839</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.231228698793369</v>
+        <v>-5.220519195068837</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.01784033409654967</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.29270835850148</v>
+        <v>-25.24480362240361</v>
       </c>
       <c r="F34" t="n">
-        <v>5.163811003783137</v>
+        <v>5.188607825365366</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.462975551394762</v>
+        <v>-5.453431262623143</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.1715655300090299</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.94784400934758</v>
+        <v>-24.907689916532</v>
       </c>
       <c r="F35" t="n">
-        <v>4.997983895989835</v>
+        <v>5.02427324009602</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.58129069217544</v>
+        <v>-5.571785680312347</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.314779808992302</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.43319867694217</v>
+        <v>-24.39131640015149</v>
       </c>
       <c r="F36" t="n">
-        <v>5.189524286564287</v>
+        <v>5.213168985496444</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.603691622337633</v>
+        <v>-5.597080009402561</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4100346855981069</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.89761875229284</v>
+        <v>-23.86497964130841</v>
       </c>
       <c r="F37" t="n">
-        <v>5.150037901193641</v>
+        <v>5.175201307255438</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.66768679862799</v>
+        <v>-5.664322076797667</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4592444268864592</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.29172006908059</v>
+        <v>-23.25582097468858</v>
       </c>
       <c r="F38" t="n">
-        <v>4.958183295350987</v>
+        <v>4.979000056869332</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.712698135797845</v>
+        <v>-5.701674416805111</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4646384197493291</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.21001100704538</v>
+        <v>-23.1788906031906</v>
       </c>
       <c r="F39" t="n">
-        <v>5.106257240490909</v>
+        <v>5.126236094627383</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.720749902045506</v>
+        <v>-5.705641384566154</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4317492445442722</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.4918327346625</v>
+        <v>-22.45887940840987</v>
       </c>
       <c r="F40" t="n">
-        <v>5.27556690084011</v>
+        <v>5.296985908289175</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.77122072950036</v>
+        <v>-5.751988136625864</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.365459646996395</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.96786568263378</v>
+        <v>-21.94172035385885</v>
       </c>
       <c r="F41" t="n">
-        <v>5.240374790801551</v>
+        <v>5.265381089229248</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.840858688315501</v>
+        <v>-5.832545076011005</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2708637284165141</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.13925383578094</v>
+        <v>-21.12169705767018</v>
       </c>
       <c r="F42" t="n">
-        <v>5.381536000041041</v>
+        <v>5.406804144525573</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.072330602557218</v>
+        <v>-6.070772618519053</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1515835448235939</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.65034797076236</v>
+        <v>-20.62678182564725</v>
       </c>
       <c r="F43" t="n">
-        <v>5.365484836757085</v>
+        <v>5.390595873607515</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.164670614499912</v>
+        <v>-6.161227338852538</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.01043681697677083</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.99371661403843</v>
+        <v>-19.96850083876527</v>
       </c>
       <c r="F44" t="n">
-        <v>5.235399715721695</v>
+        <v>5.27245093276378</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.187739252107034</v>
+        <v>-6.187843990529768</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.1494033011327695</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.46806065494313</v>
+        <v>-19.44637980143723</v>
       </c>
       <c r="F45" t="n">
-        <v>5.153756115200691</v>
+        <v>5.191409578173495</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.169135089768941</v>
+        <v>-6.18771306750135</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.325345558859759</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.79412127386244</v>
+        <v>-18.77428643505722</v>
       </c>
       <c r="F46" t="n">
-        <v>5.384704337328739</v>
+        <v>5.416387710205716</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.395527190508068</v>
+        <v>-6.405136940793895</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.5126100144796527</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.44412474199457</v>
+        <v>-18.42641085624972</v>
       </c>
       <c r="F47" t="n">
-        <v>5.41793260194104</v>
+        <v>5.44956360560665</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.643704883175827</v>
+        <v>-6.655998555544208</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.7089220353549228</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.80137122628287</v>
+        <v>-17.79528330546147</v>
       </c>
       <c r="F48" t="n">
-        <v>5.327464789304713</v>
+        <v>5.360457392465863</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.801846809201036</v>
+        <v>-6.817531388005424</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.9092425533704402</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.31764991318962</v>
+        <v>-17.31175837691084</v>
       </c>
       <c r="F49" t="n">
-        <v>5.347365089624136</v>
+        <v>5.385699352344711</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.115512200683109</v>
+        <v>-7.135360131791166</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.11226769657778</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.68648308549285</v>
+        <v>-16.69050242246526</v>
       </c>
       <c r="F50" t="n">
-        <v>5.212357262720257</v>
+        <v>5.242155343988026</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.32675650703436</v>
+        <v>-7.347808930003855</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.313475015433947</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.90429654451677</v>
+        <v>-15.9047154982077</v>
       </c>
       <c r="F51" t="n">
-        <v>5.136788490717814</v>
+        <v>5.17339456946328</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.401605202380508</v>
+        <v>-7.415456858787054</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.512984336828177</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.41794367855233</v>
+        <v>-15.42185827710201</v>
       </c>
       <c r="F52" t="n">
-        <v>5.047682277577026</v>
+        <v>5.083371895123572</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.642883251450677</v>
+        <v>-7.664420089625317</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.706930004649634</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.83529692518699</v>
+        <v>-14.83968284663897</v>
       </c>
       <c r="F53" t="n">
-        <v>4.982639717059332</v>
+        <v>5.02343533271415</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.905226815793184</v>
+        <v>-7.923294193714766</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.896209257692933</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.11336116188853</v>
+        <v>-14.120849959114</v>
       </c>
       <c r="F54" t="n">
-        <v>4.824249037280129</v>
+        <v>4.859624439558473</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.197433922917668</v>
+        <v>-8.217857915350761</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.077071462051927</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.56403431925539</v>
+        <v>-13.5771528067028</v>
       </c>
       <c r="F55" t="n">
-        <v>4.902750485119119</v>
+        <v>4.937942595157678</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.511217145125316</v>
+        <v>-8.53013552273161</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.250741208695627</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.25026418935058</v>
+        <v>-13.25233277319958</v>
       </c>
       <c r="F56" t="n">
-        <v>4.800866184404807</v>
+        <v>4.835927371414949</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.545649901599056</v>
+        <v>-8.561779618700063</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.413279245412201</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.93048469244143</v>
+        <v>-12.93675590550261</v>
       </c>
       <c r="F57" t="n">
-        <v>4.730769994990205</v>
+        <v>4.760908476131859</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.891758019522927</v>
+        <v>-8.907534244447207</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.566159197881648</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.43941859745397</v>
+        <v>-12.43991610496195</v>
       </c>
       <c r="F58" t="n">
-        <v>4.626686187398483</v>
+        <v>4.654808453902511</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.316982923519348</v>
+        <v>-9.343992344281828</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.705949779610512</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.12903937398517</v>
+        <v>-12.12918338931642</v>
       </c>
       <c r="F59" t="n">
-        <v>4.61217991584985</v>
+        <v>4.644439350051864</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.674442068006995</v>
+        <v>-9.703192765047426</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.835287530307197</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.80798992370036</v>
+        <v>-11.80283155638072</v>
       </c>
       <c r="F60" t="n">
-        <v>4.518255735263308</v>
+        <v>4.547582493628775</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.735674768397747</v>
+        <v>-9.77355080051886</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.951818554904114</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.65457431900101</v>
+        <v>-11.65755936404893</v>
       </c>
       <c r="F61" t="n">
-        <v>4.376937418389717</v>
+        <v>4.400189348236622</v>
       </c>
       <c r="G61" t="n">
-        <v>-10.13516020500733</v>
+        <v>-10.17009046898906</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.059134524854995</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.60631609072641</v>
+        <v>-11.61397508788882</v>
       </c>
       <c r="F62" t="n">
-        <v>4.267983274140873</v>
+        <v>4.289166620138785</v>
       </c>
       <c r="G62" t="n">
-        <v>-10.32725047230114</v>
+        <v>-10.35796501476783</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.156438306413729</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.37333856165789</v>
+        <v>-11.37565589926088</v>
       </c>
       <c r="F63" t="n">
-        <v>4.360676778260293</v>
+        <v>4.375078311386192</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.55137760464865</v>
+        <v>-10.57622679544224</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.248894257970506</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.33567200638225</v>
+        <v>-11.33576365250214</v>
       </c>
       <c r="F64" t="n">
-        <v>4.248920881203319</v>
+        <v>4.26887355073411</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.77911821258047</v>
+        <v>-10.8027236346041</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.337681511277566</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.42060177491653</v>
+        <v>-11.42346898923886</v>
       </c>
       <c r="F65" t="n">
-        <v>4.254445833002528</v>
+        <v>4.278169085751736</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.61005730598526</v>
+        <v>-10.64731799987282</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.428891219189439</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.27708395116552</v>
+        <v>-11.28562013261833</v>
       </c>
       <c r="F66" t="n">
-        <v>4.27494837925267</v>
+        <v>4.300059416103101</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.78786387087875</v>
+        <v>-10.82372368836223</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.524606766391093</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.55699738592163</v>
+        <v>-11.56905539683886</v>
       </c>
       <c r="F67" t="n">
-        <v>3.97722941263182</v>
+        <v>4.000664634718509</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.8943435698905</v>
+        <v>-10.93341100157022</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.62999048123795</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.54726980491023</v>
+        <v>-11.5561725708426</v>
       </c>
       <c r="F68" t="n">
-        <v>4.12051157493167</v>
+        <v>4.136562738215626</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.68541660114224</v>
+        <v>-10.72257255660706</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.745739681148157</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.51715750837426</v>
+        <v>-11.52427972112015</v>
       </c>
       <c r="F69" t="n">
-        <v>4.072698484953686</v>
+        <v>4.099380598145124</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.78842683990094</v>
+        <v>-10.82118378161094</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.874558953216872</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.70507133106155</v>
+        <v>-11.72368858570248</v>
       </c>
       <c r="F70" t="n">
-        <v>3.826537006923553</v>
+        <v>3.841802632037005</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.85039270925083</v>
+        <v>-10.88263905115</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.014819508021494</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.66767971414558</v>
+        <v>-11.68010430954238</v>
       </c>
       <c r="F71" t="n">
-        <v>3.752932080347369</v>
+        <v>3.767150321233483</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.84575803404486</v>
+        <v>-10.88182732837381</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.166321412666925</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.82599184010773</v>
+        <v>-11.84674314011187</v>
       </c>
       <c r="F72" t="n">
-        <v>3.776262564011325</v>
+        <v>3.793230188494201</v>
       </c>
       <c r="G72" t="n">
-        <v>-11.02034389243928</v>
+        <v>-11.0579711708064</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.325425437604964</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.24236634738314</v>
+        <v>-12.26682276909149</v>
       </c>
       <c r="F73" t="n">
-        <v>3.899801533625852</v>
+        <v>3.915407558613189</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.78982771630501</v>
+        <v>-10.82915699404155</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.490297242427411</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.55940955299838</v>
+        <v>-12.58505737426533</v>
       </c>
       <c r="F74" t="n">
-        <v>3.876052096270961</v>
+        <v>3.896004765801751</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.70045965710738</v>
+        <v>-10.73376647553673</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.65709560611407</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.83442646649168</v>
+        <v>-12.8626403791156</v>
       </c>
       <c r="F75" t="n">
-        <v>3.837796387367437</v>
+        <v>3.857146810967508</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.62995760630469</v>
+        <v>-10.66698263874109</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.82368268078756</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.0878934495075</v>
+        <v>-13.11432680894494</v>
       </c>
       <c r="F76" t="n">
-        <v>3.856544565036789</v>
+        <v>3.868170529960242</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.5775622103321</v>
+        <v>-10.61068573652167</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.9860719713098</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.51959904341057</v>
+        <v>-13.54713215628672</v>
       </c>
       <c r="F77" t="n">
-        <v>3.855863765289019</v>
+        <v>3.873381266491249</v>
       </c>
       <c r="G77" t="n">
-        <v>-10.35316013962492</v>
+        <v>-10.38993641830732</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.142031364615738</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.26786342772374</v>
+        <v>-14.2977531551114</v>
       </c>
       <c r="F78" t="n">
-        <v>3.826301345472402</v>
+        <v>3.843871215885998</v>
       </c>
       <c r="G78" t="n">
-        <v>-10.04592306883813</v>
+        <v>-10.07705656499575</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.287872868813539</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.88292672292519</v>
+        <v>-14.91157268154289</v>
       </c>
       <c r="F79" t="n">
-        <v>3.995034944496567</v>
+        <v>4.007970139704192</v>
       </c>
       <c r="G79" t="n">
-        <v>-10.07291939729777</v>
+        <v>-10.10397433963834</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.422031209293499</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.26353305883701</v>
+        <v>-15.30228627524852</v>
       </c>
       <c r="F80" t="n">
-        <v>4.013102322418149</v>
+        <v>4.031405361790882</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.663012487626167</v>
+        <v>-9.692692738168361</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.542162159800176</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.80580315023846</v>
+        <v>-15.84581322772278</v>
       </c>
       <c r="F81" t="n">
-        <v>4.002628480144768</v>
+        <v>4.02341905705743</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.470660374275528</v>
+        <v>-9.5032209314429</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.64812963280478</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.63561948895275</v>
+        <v>-16.67133529110497</v>
       </c>
       <c r="F82" t="n">
-        <v>3.903284086181751</v>
+        <v>3.920932510412398</v>
       </c>
       <c r="G82" t="n">
-        <v>-9.235169123061402</v>
+        <v>-9.265150496568955</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.738504411125392</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.59694800971216</v>
+        <v>-17.64113453180299</v>
       </c>
       <c r="F83" t="n">
-        <v>4.004251925697142</v>
+        <v>4.020067427529948</v>
       </c>
       <c r="G83" t="n">
-        <v>-9.042620625168137</v>
+        <v>-9.073413721451876</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.812261690950488</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.52625275772072</v>
+        <v>-18.57685450820399</v>
       </c>
       <c r="F84" t="n">
-        <v>3.935098382087145</v>
+        <v>3.958428865751101</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.741982075013581</v>
+        <v>-8.76935808025563</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.867730610096287</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.55714068347823</v>
+        <v>-19.61390890859996</v>
       </c>
       <c r="F85" t="n">
-        <v>4.085555126344262</v>
+        <v>4.11399160811649</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.532282660397653</v>
+        <v>-8.558729112137941</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.903691572957065</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.74006952213671</v>
+        <v>-20.7956987169112</v>
       </c>
       <c r="F86" t="n">
-        <v>4.089875586282031</v>
+        <v>4.116086376571166</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.389314713366005</v>
+        <v>-8.415721888197767</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.919595429701022</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.94808321303993</v>
+        <v>-22.00047860901252</v>
       </c>
       <c r="F87" t="n">
-        <v>4.048058771005558</v>
+        <v>4.071677285332032</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.234485139959753</v>
+        <v>-8.261114883939824</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.915114360364511</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.36532499565678</v>
+        <v>-23.42327152803426</v>
       </c>
       <c r="F88" t="n">
-        <v>4.255152817355981</v>
+        <v>4.281704007519001</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.155944415212238</v>
+        <v>-8.179222529664827</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.890825184286741</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.87114929930074</v>
+        <v>-24.92794370902815</v>
       </c>
       <c r="F89" t="n">
-        <v>4.133446770139296</v>
+        <v>4.15570368497023</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.891047851815594</v>
+        <v>-7.90860462992635</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.846388318233943</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.51738855092222</v>
+        <v>-26.58031015837956</v>
       </c>
       <c r="F90" t="n">
-        <v>4.235383440064974</v>
+        <v>4.262877276032599</v>
       </c>
       <c r="G90" t="n">
-        <v>-8.071983477088249</v>
+        <v>-8.095340145357888</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.781959467819209</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.19048011567208</v>
+        <v>-28.26057630508668</v>
       </c>
       <c r="F91" t="n">
-        <v>4.405112054105111</v>
+        <v>4.430092167927125</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.779789462266606</v>
+        <v>-7.794112441575455</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.695814693327063</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.17543033411185</v>
+        <v>-30.24106204825743</v>
       </c>
       <c r="F92" t="n">
-        <v>4.288276343545548</v>
+        <v>4.312392365380007</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.974642205460015</v>
+        <v>-7.991780029879835</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.588015777193155</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.02329104949591</v>
+        <v>-32.09112227051889</v>
       </c>
       <c r="F93" t="n">
-        <v>4.195137701129508</v>
+        <v>4.221845998926629</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.882171270488905</v>
+        <v>-7.882236732003113</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.457594260225309</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.01885912554032</v>
+        <v>-34.08285430183068</v>
       </c>
       <c r="F94" t="n">
-        <v>4.501576141442949</v>
+        <v>4.530143546243595</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.698316061682545</v>
+        <v>-7.69873501537348</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.307053446977642</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.09286318790951</v>
+        <v>-36.16591823776635</v>
       </c>
       <c r="F95" t="n">
-        <v>4.187151396396056</v>
+        <v>4.210979387567997</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.514460852876186</v>
+        <v>-7.498370412683705</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.137778232248511</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.34216009302658</v>
+        <v>-38.41961415663823</v>
       </c>
       <c r="F96" t="n">
-        <v>4.071860577571816</v>
+        <v>4.102863150701023</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.569618724748378</v>
+        <v>-7.564735295788414</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.954169408350754</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.27366753126643</v>
+        <v>-40.35854493058934</v>
       </c>
       <c r="F97" t="n">
-        <v>3.853638073805926</v>
+        <v>3.887206738292111</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.169766703659223</v>
+        <v>-7.15594123185836</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.761294701277212</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.83198206035675</v>
+        <v>-42.92152031949131</v>
       </c>
       <c r="F98" t="n">
-        <v>3.832114327934128</v>
+        <v>3.868249083777292</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.194118386944833</v>
+        <v>-7.178878946437064</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.568345196483423</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.95882665699515</v>
+        <v>-45.04827327000982</v>
       </c>
       <c r="F99" t="n">
-        <v>3.716404555418953</v>
+        <v>3.75096823492111</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.912948091115924</v>
+        <v>-6.896792189409234</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.387063230089259</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.20737730085024</v>
+        <v>-47.29802840572635</v>
       </c>
       <c r="F100" t="n">
-        <v>3.607816995649677</v>
+        <v>3.640652491176726</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.712085980918163</v>
+        <v>-6.695812248485897</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.231861436945191</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.58877554164032</v>
+        <v>-49.68283064525528</v>
       </c>
       <c r="F101" t="n">
-        <v>3.305829938302423</v>
+        <v>3.354768966324796</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.717113425209385</v>
+        <v>-6.697684447792263</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.12122976160529</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.99078106710327</v>
+        <v>-52.08863293854233</v>
       </c>
       <c r="F102" t="n">
-        <v>2.90311070289093</v>
+        <v>2.943670657094597</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.760187101558664</v>
+        <v>-6.739985678273881</v>
       </c>
     </row>
   </sheetData>
